--- a/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
@@ -634,7 +634,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -661,7 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,10 +740,8 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,21 +756,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -5418,7 +5416,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5452,81 +5450,81 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61">
+      <c r="B3" s="58">
         <f t="shared" ref="B3" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="58">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
         <v>210.89745962155612</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="58">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.60254037844388</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="60">
+        <v>149.99971938845687</v>
+      </c>
+      <c r="F3" s="57">
         <v>5</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="60">
         <f t="shared" ref="G3:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -5535,59 +5533,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="58">
         <f t="shared" ref="B4:B7" si="2">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="58">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>192.42225100748811</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="58">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.60254037844388</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="57">
         <v>5</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -5602,50 +5600,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="50">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="58">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="58">
         <f>((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.1846467004541</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="58">
         <f>((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.60254037844389</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="57">
         <v>5</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -5660,49 +5658,49 @@
       <c r="N5" s="3">
         <v>-30</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="58">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="58">
         <f>((+O6*COS($N$3)-P6*SIN($N$3)+$N$7)*$R$3)</f>
         <v>164.70943808638606</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="58">
         <f>((O6*SIN($N$3)+P6*COS($N$3)+$N$9)*$R$4)</f>
         <v>115.60254037844388</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M6/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="57">
         <v>5</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -5714,50 +5712,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="39">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="58">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="58">
         <f>((+O7*COS($N$3)-P7*SIN($N$3)+$N$7)*$R$3)</f>
         <v>155.47183377935207</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="58">
         <f>((O7*SIN($N$3)+P7*COS($N$3)+$N$9)*$R$4)</f>
         <v>131.60254037844385</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M7/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="57">
         <v>5</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -5772,27 +5770,27 @@
       <c r="N7" s="3">
         <v>-347.5</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -5804,29 +5802,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -5841,24 +5839,24 @@
       <c r="N9" s="3">
         <v>95</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="39">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -5873,42 +5871,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="58">
         <f t="shared" ref="B11:B14" si="3">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="58">
         <f>((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.18464670045412</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="58">
         <f>((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.60254037844385</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="57">
         <v>5</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="60">
         <f t="shared" ref="G11:G14" si="4">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -5920,45 +5918,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="58">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="58">
         <f>((+O12*COS($N$3)-P12*SIN($N$3)+$N$7)*$R$3)</f>
         <v>164.70943808638611</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="58">
         <f>((O12*SIN($N$3)+P12*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.60254037844385</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M12/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="57">
         <v>5</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="60">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -5971,42 +5969,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="39">
+      <c r="O12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="58">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="58">
         <f>((+O13*COS($N$3)-P13*SIN($N$3)+$N$7)*$R$3)</f>
         <v>155.4718337793521</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="58">
         <f>((O13*SIN($N$3)+P13*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.60254037844385</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M13/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="57">
         <v>5</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="60">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -6019,42 +6017,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="39">
+      <c r="O13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="58">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="58">
         <f>((+O14*COS($N$3)-P14*SIN($N$3)+$N$7)*$R$3)</f>
         <v>164.70943808638611</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="58">
         <f>((O14*SIN($N$3)+P14*COS($N$3)+$N$9)*$R$4)</f>
         <v>179.60254037844379</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M14/3.1416*180)+$N$5)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="57">
         <v>5</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="60">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -6067,23 +6065,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -6096,23 +6094,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -6125,23 +6123,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="39">
+      <c r="O16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -6154,23 +6152,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -6180,45 +6178,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="58">
         <f t="shared" ref="B19" si="5">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.18464670045415</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="58">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>179.60254037844382</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="57">
         <v>5</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="60">
         <f t="shared" ref="G19" si="6">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -6231,23 +6229,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="39">
+      <c r="O19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -6260,23 +6258,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -6289,23 +6287,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="39">
+      <c r="O21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -6318,42 +6316,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="58">
         <f t="shared" ref="B23:B25" si="7">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="58">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>192.42225100748814</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="58">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.60254037844382</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="57">
         <v>5</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="60">
         <f t="shared" ref="G23:G25" si="8">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="38">
+      <c r="J23" s="37">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -6366,42 +6364,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="61">
+      <c r="B24" s="58">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="58">
         <f>((+O24*COS($N$3)-P24*SIN($N$3)+$N$7)*$R$3)</f>
         <v>210.89745962155615</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="58">
         <f>((O24*SIN($N$3)+P24*COS($N$3)+$N$9)*$R$4)</f>
         <v>163.60254037844385</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M24/3.1416*180)+$N$5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F24" s="60">
+      <c r="F24" s="57">
         <v>5</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="60">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="38">
+      <c r="J24" s="37">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -6414,58 +6412,58 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="39">
+      <c r="O24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="61">
+      <c r="B25" s="58">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C25" s="61">
+      <c r="C25" s="58">
         <f>((+O25*COS($N$3)-P25*SIN($N$3)+$N$7)*$R$3)</f>
         <v>220.13506392859017</v>
       </c>
-      <c r="D25" s="61">
+      <c r="D25" s="58">
         <f>((O25*SIN($N$3)+P25*COS($N$3)+$N$9)*$R$4)</f>
         <v>147.60254037844388</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M25/3.1416*180)+$N$5)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="57">
         <v>5</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="60">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="38">
+      <c r="J25" s="37">
         <v>1</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>16</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46">
+      <c r="N25" s="44"/>
+      <c r="O25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -6733,7 +6731,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,62 +6760,62 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="63"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>2</v>
       </c>
       <c r="K3" s="12">
@@ -6826,59 +6824,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="58">
         <f t="shared" ref="B4" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>17</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="58">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>192.92225100748811</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="58">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>36.602540378443869</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="60">
+      <c r="F4" s="57">
         <v>5</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="60">
         <f t="shared" ref="G4:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>2</v>
       </c>
       <c r="K4" s="10">
@@ -6893,50 +6891,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="50">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="58">
         <f t="shared" ref="B5:B7" si="2">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
         <v>18</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="58">
         <f t="shared" ref="C5:C7" si="3">((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.6846467004541</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="58">
         <f t="shared" ref="D5:D7" si="4">((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
         <v>20.602540378443891</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="58">
         <f t="shared" ref="E5:E7" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="57">
         <v>5</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>2</v>
       </c>
       <c r="K5" s="10">
@@ -6951,49 +6949,49 @@
       <c r="N5" s="3">
         <v>-30</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="58">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="58">
         <f t="shared" si="3"/>
         <v>165.20943808638606</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="58">
         <f t="shared" si="4"/>
         <v>20.602540378443877</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <f t="shared" si="5"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="57">
         <v>5</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>2</v>
       </c>
       <c r="K6" s="10">
@@ -7005,50 +7003,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="39">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="58">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="58">
         <f t="shared" si="3"/>
         <v>155.97183377935207</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="58">
         <f t="shared" si="4"/>
         <v>36.602540378443848</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="57">
         <v>5</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="60">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>2</v>
       </c>
       <c r="K7" s="10">
@@ -7063,27 +7061,27 @@
       <c r="N7" s="3">
         <v>-348</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>2</v>
       </c>
       <c r="K8" s="10">
@@ -7095,29 +7093,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>2</v>
       </c>
       <c r="K9" s="10">
@@ -7132,24 +7130,24 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="39">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>2</v>
       </c>
       <c r="K10" s="10">
@@ -7164,42 +7162,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="58">
         <f t="shared" ref="B11:B15" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="58">
         <f t="shared" ref="C11:C15" si="7">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.68464670045412</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="58">
         <f t="shared" ref="D11:D15" si="8">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>52.602540378443841</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <f t="shared" ref="E11:E15" si="9">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="57">
         <v>5</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="60">
         <f t="shared" ref="G11:G15" si="10">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>2</v>
       </c>
       <c r="K11" s="10">
@@ -7211,45 +7209,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="58">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="58">
         <f t="shared" si="7"/>
         <v>165.20943808638611</v>
       </c>
-      <c r="D12" s="61">
+      <c r="D12" s="58">
         <f t="shared" si="8"/>
         <v>52.602540378443834</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="58">
         <f t="shared" si="9"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="57">
         <v>5</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="60">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>2</v>
       </c>
       <c r="K12" s="10">
@@ -7262,42 +7260,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="39">
+      <c r="O12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="58">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="58">
         <f t="shared" si="7"/>
         <v>155.9718337793521</v>
       </c>
-      <c r="D13" s="61">
+      <c r="D13" s="58">
         <f t="shared" si="8"/>
         <v>68.602540378443834</v>
       </c>
-      <c r="E13" s="61">
+      <c r="E13" s="58">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="57">
         <v>5</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="60">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>2</v>
       </c>
       <c r="K13" s="10">
@@ -7310,42 +7308,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="39">
+      <c r="O13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="58">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="58">
         <f t="shared" si="7"/>
         <v>165.20943808638611</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="58">
         <f t="shared" si="8"/>
         <v>84.602540378443791</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="58">
         <f t="shared" si="9"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="57">
         <v>5</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="60">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>2</v>
       </c>
       <c r="K14" s="10">
@@ -7358,42 +7356,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="58">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="58">
         <f t="shared" si="7"/>
         <v>155.97183377935212</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="58">
         <f t="shared" si="8"/>
         <v>100.60254037844379</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="58">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="57">
         <v>5</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="60">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>2</v>
       </c>
       <c r="K15" s="10">
@@ -7406,23 +7404,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <v>2</v>
       </c>
       <c r="K16" s="10">
@@ -7435,23 +7433,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="39">
+      <c r="O16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>2</v>
       </c>
       <c r="K17" s="10">
@@ -7464,23 +7462,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>2</v>
       </c>
       <c r="K18" s="10">
@@ -7490,45 +7488,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="58">
         <f t="shared" ref="B19:B20" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>26</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="58">
         <f t="shared" ref="C19:C20" si="12">((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>183.68464670045415</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="58">
         <f t="shared" ref="D19:D20" si="13">((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>84.60254037844382</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="58">
         <f t="shared" ref="E19:E20" si="14">IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="57">
         <v>5</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="60">
         <f t="shared" ref="G19:G20" si="15">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>2</v>
       </c>
       <c r="K19" s="10">
@@ -7541,42 +7539,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="39">
+      <c r="O19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="58">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="58">
         <f t="shared" si="12"/>
         <v>192.92225100748817</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="58">
         <f t="shared" si="13"/>
         <v>100.60254037844379</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="58">
         <f t="shared" si="14"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="57">
         <v>5</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="60">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>2</v>
       </c>
       <c r="K20" s="10">
@@ -7589,23 +7587,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>2</v>
       </c>
       <c r="K21" s="10">
@@ -7618,23 +7616,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="39">
+      <c r="O21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <v>2</v>
       </c>
       <c r="K22" s="10">
@@ -7647,42 +7645,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="58">
         <f t="shared" ref="B23" si="16">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>27</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="58">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>192.92225100748814</v>
       </c>
-      <c r="D23" s="61">
+      <c r="D23" s="58">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>68.60254037844382</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="58">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="57">
         <v>5</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="60">
         <f t="shared" ref="G23" si="17">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -7695,23 +7693,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="63"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="60"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>2</v>
       </c>
       <c r="K24" s="10">
@@ -7724,39 +7722,39 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="39">
+      <c r="O24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="60"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>2</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>16</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46">
+      <c r="N25" s="44"/>
+      <c r="O25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -7766,7 +7764,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="54"/>
+      <c r="N30" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7779,47 +7777,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="67"/>
-    <col min="5" max="5" width="11.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="63"/>
+    <col min="5" max="5" width="11.28515625" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="str">
+      <c r="A3" s="61" t="str">
         <f>IF(top!A3=0, "", top!A3)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="68">
         <f>IF(top!B3="", "", top!B3)</f>
         <v>0</v>
       </c>
@@ -7833,23 +7831,23 @@
       </c>
       <c r="E3" s="69">
         <f>IF(top!E3="", "", top!E3)</f>
-        <v>30</v>
-      </c>
-      <c r="F3" s="56">
+        <v>149.99971938845687</v>
+      </c>
+      <c r="F3" s="69">
         <f>IF(top!F3=0, "", top!F3)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="69">
         <f>IF(top!$A3="", "", top!G3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="str">
+      <c r="A4" s="61" t="str">
         <f>IF(top!A4=0, "", top!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="68">
         <f>IF(top!B4="", "", top!B4)</f>
         <v>1</v>
       </c>
@@ -7865,21 +7863,21 @@
         <f>IF(top!E4="", "", top!E4)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="69">
         <f>IF(top!F4=0, "", top!F4)</f>
         <v>5</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="69">
         <f>IF(top!$A4="", "", top!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="str">
+      <c r="A5" s="61" t="str">
         <f>IF(top!A5=0, "", top!A5)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="68">
         <f>IF(top!B5="", "", top!B5)</f>
         <v>2</v>
       </c>
@@ -7895,21 +7893,21 @@
         <f>IF(top!E5="", "", top!E5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="69">
         <f>IF(top!F5=0, "", top!F5)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="69">
         <f>IF(top!$A5="", "", top!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="str">
+      <c r="A6" s="61" t="str">
         <f>IF(top!A6=0, "", top!A6)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="68">
         <f>IF(top!B6="", "", top!B6)</f>
         <v>3</v>
       </c>
@@ -7925,21 +7923,21 @@
         <f>IF(top!E6="", "", top!E6)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="69">
         <f>IF(top!F6=0, "", top!F6)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="69">
         <f>IF(top!$A6="", "", top!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="str">
+      <c r="A7" s="61" t="str">
         <f>IF(top!A7=0, "", top!A7)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="68">
         <f>IF(top!B7="", "", top!B7)</f>
         <v>4</v>
       </c>
@@ -7955,21 +7953,21 @@
         <f>IF(top!E7="", "", top!E7)</f>
         <v>30</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="69">
         <f>IF(top!F7=0, "", top!F7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="69">
         <f>IF(top!$A7="", "", top!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="str">
+      <c r="A8" s="61" t="str">
         <f>IF(top!A8=0, "", top!A8)</f>
         <v/>
       </c>
-      <c r="B8" s="66" t="str">
+      <c r="B8" s="68" t="str">
         <f>IF(top!B8="", "", top!B8)</f>
         <v/>
       </c>
@@ -7985,21 +7983,21 @@
         <f>IF(top!E8="", "", top!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="64" t="str">
+      <c r="F8" s="69" t="str">
         <f>IF(top!F8=0, "", top!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="64" t="str">
+      <c r="G8" s="69" t="str">
         <f>IF(top!$A8="", "", top!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="str">
+      <c r="A9" s="61" t="str">
         <f>IF(top!A9=0, "", top!A9)</f>
         <v/>
       </c>
-      <c r="B9" s="66" t="str">
+      <c r="B9" s="68" t="str">
         <f>IF(top!B9="", "", top!B9)</f>
         <v/>
       </c>
@@ -8015,21 +8013,21 @@
         <f>IF(top!E9="", "", top!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="64" t="str">
+      <c r="F9" s="69" t="str">
         <f>IF(top!F9=0, "", top!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="64" t="str">
+      <c r="G9" s="69" t="str">
         <f>IF(top!$A9="", "", top!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="str">
+      <c r="A10" s="61" t="str">
         <f>IF(top!A10=0, "", top!A10)</f>
         <v/>
       </c>
-      <c r="B10" s="66" t="str">
+      <c r="B10" s="68" t="str">
         <f>IF(top!B10="", "", top!B10)</f>
         <v/>
       </c>
@@ -8045,21 +8043,21 @@
         <f>IF(top!E10="", "", top!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="64" t="str">
+      <c r="F10" s="69" t="str">
         <f>IF(top!F10=0, "", top!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="64" t="str">
+      <c r="G10" s="69" t="str">
         <f>IF(top!$A10="", "", top!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="str">
+      <c r="A11" s="61" t="str">
         <f>IF(top!A11=0, "", top!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B11" s="66">
+      <c r="B11" s="68">
         <f>IF(top!B11="", "", top!B11)</f>
         <v>12</v>
       </c>
@@ -8075,21 +8073,21 @@
         <f>IF(top!E11="", "", top!E11)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="69">
         <f>IF(top!F11=0, "", top!F11)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="64">
+      <c r="G11" s="69">
         <f>IF(top!$A11="", "", top!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="str">
+      <c r="A12" s="61" t="str">
         <f>IF(top!A12=0, "", top!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B12" s="66">
+      <c r="B12" s="68">
         <f>IF(top!B12="", "", top!B12)</f>
         <v>13</v>
       </c>
@@ -8105,21 +8103,21 @@
         <f>IF(top!E12="", "", top!E12)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="69">
         <f>IF(top!F12=0, "", top!F12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="69">
         <f>IF(top!$A12="", "", top!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="str">
+      <c r="A13" s="61" t="str">
         <f>IF(top!A13=0, "", top!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B13" s="66">
+      <c r="B13" s="68">
         <f>IF(top!B13="", "", top!B13)</f>
         <v>8</v>
       </c>
@@ -8135,21 +8133,21 @@
         <f>IF(top!E13="", "", top!E13)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="69">
         <f>IF(top!F13=0, "", top!F13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="69">
         <f>IF(top!$A13="", "", top!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="str">
+      <c r="A14" s="61" t="str">
         <f>IF(top!A14=0, "", top!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="68">
         <f>IF(top!B14="", "", top!B14)</f>
         <v>9</v>
       </c>
@@ -8165,21 +8163,21 @@
         <f>IF(top!E14="", "", top!E14)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="69">
         <f>IF(top!F14=0, "", top!F14)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="64">
+      <c r="G14" s="69">
         <f>IF(top!$A14="", "", top!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="str">
+      <c r="A15" s="61" t="str">
         <f>IF(top!A15=0, "", top!A15)</f>
         <v/>
       </c>
-      <c r="B15" s="66" t="str">
+      <c r="B15" s="68" t="str">
         <f>IF(top!B15="", "", top!B15)</f>
         <v/>
       </c>
@@ -8195,21 +8193,21 @@
         <f>IF(top!E15="", "", top!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="64" t="str">
+      <c r="F15" s="69" t="str">
         <f>IF(top!F15=0, "", top!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="64" t="str">
+      <c r="G15" s="69" t="str">
         <f>IF(top!$A15="", "", top!G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="str">
+      <c r="A16" s="61" t="str">
         <f>IF(top!A16=0, "", top!A16)</f>
         <v/>
       </c>
-      <c r="B16" s="66" t="str">
+      <c r="B16" s="68" t="str">
         <f>IF(top!B16="", "", top!B16)</f>
         <v/>
       </c>
@@ -8225,21 +8223,21 @@
         <f>IF(top!E16="", "", top!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="64" t="str">
+      <c r="F16" s="69" t="str">
         <f>IF(top!F16=0, "", top!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="64" t="str">
+      <c r="G16" s="69" t="str">
         <f>IF(top!$A16="", "", top!G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="str">
+      <c r="A17" s="61" t="str">
         <f>IF(top!A17=0, "", top!A17)</f>
         <v/>
       </c>
-      <c r="B17" s="66" t="str">
+      <c r="B17" s="68" t="str">
         <f>IF(top!B17="", "", top!B17)</f>
         <v/>
       </c>
@@ -8255,21 +8253,21 @@
         <f>IF(top!E17="", "", top!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="64" t="str">
+      <c r="F17" s="69" t="str">
         <f>IF(top!F17=0, "", top!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="64" t="str">
+      <c r="G17" s="69" t="str">
         <f>IF(top!$A17="", "", top!G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="str">
+      <c r="A18" s="61" t="str">
         <f>IF(top!A18=0, "", top!A18)</f>
         <v/>
       </c>
-      <c r="B18" s="66" t="str">
+      <c r="B18" s="68" t="str">
         <f>IF(top!B18="", "", top!B18)</f>
         <v/>
       </c>
@@ -8285,21 +8283,21 @@
         <f>IF(top!E18="", "", top!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="64" t="str">
+      <c r="F18" s="69" t="str">
         <f>IF(top!F18=0, "", top!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="64" t="str">
+      <c r="G18" s="69" t="str">
         <f>IF(top!$A18="", "", top!G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="str">
+      <c r="A19" s="61" t="str">
         <f>IF(top!A19=0, "", top!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B19" s="66">
+      <c r="B19" s="68">
         <f>IF(top!B19="", "", top!B19)</f>
         <v>10</v>
       </c>
@@ -8315,21 +8313,21 @@
         <f>IF(top!E19="", "", top!E19)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="69">
         <f>IF(top!F19=0, "", top!F19)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="64">
+      <c r="G19" s="69">
         <f>IF(top!$A19="", "", top!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="str">
+      <c r="A20" s="61" t="str">
         <f>IF(top!A20=0, "", top!A20)</f>
         <v/>
       </c>
-      <c r="B20" s="66" t="str">
+      <c r="B20" s="68" t="str">
         <f>IF(top!B20="", "", top!B20)</f>
         <v/>
       </c>
@@ -8345,21 +8343,21 @@
         <f>IF(top!E20="", "", top!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="64" t="str">
+      <c r="F20" s="69" t="str">
         <f>IF(top!F20=0, "", top!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="64" t="str">
+      <c r="G20" s="69" t="str">
         <f>IF(top!$A20="", "", top!G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="str">
+      <c r="A21" s="61" t="str">
         <f>IF(top!A21=0, "", top!A21)</f>
         <v/>
       </c>
-      <c r="B21" s="66" t="str">
+      <c r="B21" s="68" t="str">
         <f>IF(top!B21="", "", top!B21)</f>
         <v/>
       </c>
@@ -8375,21 +8373,21 @@
         <f>IF(top!E21="", "", top!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="64" t="str">
+      <c r="F21" s="69" t="str">
         <f>IF(top!F21=0, "", top!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="64" t="str">
+      <c r="G21" s="69" t="str">
         <f>IF(top!$A21="", "", top!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="str">
+      <c r="A22" s="61" t="str">
         <f>IF(top!A22=0, "", top!A22)</f>
         <v/>
       </c>
-      <c r="B22" s="66" t="str">
+      <c r="B22" s="68" t="str">
         <f>IF(top!B22="", "", top!B22)</f>
         <v/>
       </c>
@@ -8405,21 +8403,21 @@
         <f>IF(top!E22="", "", top!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="64" t="str">
+      <c r="F22" s="69" t="str">
         <f>IF(top!F22=0, "", top!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="64" t="str">
+      <c r="G22" s="69" t="str">
         <f>IF(top!$A22="", "", top!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="str">
+      <c r="A23" s="61" t="str">
         <f>IF(top!A23=0, "", top!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B23" s="66">
+      <c r="B23" s="68">
         <f>IF(top!B23="", "", top!B23)</f>
         <v>11</v>
       </c>
@@ -8435,21 +8433,21 @@
         <f>IF(top!E23="", "", top!E23)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="69">
         <f>IF(top!F23=0, "", top!F23)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="69">
         <f>IF(top!$A23="", "", top!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="str">
+      <c r="A24" s="61" t="str">
         <f>IF(top!A24=0, "", top!A24)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B24" s="66">
+      <c r="B24" s="68">
         <f>IF(top!B24="", "", top!B24)</f>
         <v>14</v>
       </c>
@@ -8465,21 +8463,21 @@
         <f>IF(top!E24="", "", top!E24)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="69">
         <f>IF(top!F24=0, "", top!F24)</f>
         <v>5</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="69">
         <f>IF(top!$A24="", "", top!G24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="str">
+      <c r="A25" s="61" t="str">
         <f>IF(top!A25=0, "", top!A25)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B25" s="66">
+      <c r="B25" s="68">
         <f>IF(top!B25="", "", top!B25)</f>
         <v>15</v>
       </c>
@@ -8495,1127 +8493,1127 @@
         <f>IF(top!E25="", "", top!E25)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="69">
         <f>IF(top!F25=0, "", top!F25)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="69">
         <f>IF(top!$A25="", "", top!G25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="str">
+      <c r="A26" s="67" t="str">
         <f>IF(bottom!A3="", "", bottom!A3)</f>
         <v/>
       </c>
-      <c r="B26" s="73" t="str">
+      <c r="B26" s="70" t="str">
         <f>IF(bottom!B3="", "", bottom!B3)</f>
         <v/>
       </c>
-      <c r="C26" s="74" t="str">
+      <c r="C26" s="70" t="str">
         <f>IF(bottom!C3="", "", bottom!C3)</f>
         <v/>
       </c>
-      <c r="D26" s="74" t="str">
+      <c r="D26" s="70" t="str">
         <f>IF(bottom!D3="", "", bottom!D3)</f>
         <v/>
       </c>
-      <c r="E26" s="74" t="str">
+      <c r="E26" s="70" t="str">
         <f>IF(bottom!E3="", "", bottom!E3)</f>
         <v/>
       </c>
-      <c r="F26" s="73" t="str">
+      <c r="F26" s="70" t="str">
         <f>IF(bottom!F3="", "", bottom!F3)</f>
         <v/>
       </c>
-      <c r="G26" s="73" t="str">
+      <c r="G26" s="70" t="str">
         <f>IF(bottom!A3="", "", bottom!G3)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="73" t="str">
+      <c r="A27" s="67" t="str">
         <f>IF(bottom!A4="", "", bottom!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="70">
         <f>IF(bottom!B4="", "", bottom!B4)</f>
         <v>17</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="70">
         <f>IF(bottom!C4="", "", bottom!C4)</f>
         <v>192.92225100748811</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="70">
         <f>IF(bottom!D4="", "", bottom!D4)</f>
         <v>36.602540378443869</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="70">
         <f>IF(bottom!E4="", "", bottom!E4)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F27" s="73">
+      <c r="F27" s="70">
         <f>IF(bottom!F4="", "", bottom!F4)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="70">
         <f>IF(bottom!A4="", "", bottom!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="str">
+      <c r="A28" s="67" t="str">
         <f>IF(bottom!A5="", "", bottom!A5)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B28" s="73">
+      <c r="B28" s="70">
         <f>IF(bottom!B5="", "", bottom!B5)</f>
         <v>18</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="70">
         <f>IF(bottom!C5="", "", bottom!C5)</f>
         <v>183.6846467004541</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="70">
         <f>IF(bottom!D5="", "", bottom!D5)</f>
         <v>20.602540378443891</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="70">
         <f>IF(bottom!E5="", "", bottom!E5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="70">
         <f>IF(bottom!F5="", "", bottom!F5)</f>
         <v>5</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="70">
         <f>IF(bottom!A5="", "", bottom!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="str">
+      <c r="A29" s="67" t="str">
         <f>IF(bottom!A6="", "", bottom!A6)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="70">
         <f>IF(bottom!B6="", "", bottom!B6)</f>
         <v>19</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="70">
         <f>IF(bottom!C6="", "", bottom!C6)</f>
         <v>165.20943808638606</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="70">
         <f>IF(bottom!D6="", "", bottom!D6)</f>
         <v>20.602540378443877</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="70">
         <f>IF(bottom!E6="", "", bottom!E6)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="70">
         <f>IF(bottom!F6="", "", bottom!F6)</f>
         <v>5</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="70">
         <f>IF(bottom!A6="", "", bottom!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="str">
+      <c r="A30" s="67" t="str">
         <f>IF(bottom!A7="", "", bottom!A7)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="70">
         <f>IF(bottom!B7="", "", bottom!B7)</f>
         <v>20</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="70">
         <f>IF(bottom!C7="", "", bottom!C7)</f>
         <v>155.97183377935207</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="70">
         <f>IF(bottom!D7="", "", bottom!D7)</f>
         <v>36.602540378443848</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="70">
         <f>IF(bottom!E7="", "", bottom!E7)</f>
         <v>30</v>
       </c>
-      <c r="F30" s="73">
+      <c r="F30" s="70">
         <f>IF(bottom!F7="", "", bottom!F7)</f>
         <v>5</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="70">
         <f>IF(bottom!A7="", "", bottom!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="73" t="str">
+      <c r="A31" s="67" t="str">
         <f>IF(bottom!A8="", "", bottom!A8)</f>
         <v/>
       </c>
-      <c r="B31" s="73" t="str">
+      <c r="B31" s="70" t="str">
         <f>IF(bottom!B8="", "", bottom!B8)</f>
         <v/>
       </c>
-      <c r="C31" s="74" t="str">
+      <c r="C31" s="70" t="str">
         <f>IF(bottom!C8="", "", bottom!C8)</f>
         <v/>
       </c>
-      <c r="D31" s="74" t="str">
+      <c r="D31" s="70" t="str">
         <f>IF(bottom!D8="", "", bottom!D8)</f>
         <v/>
       </c>
-      <c r="E31" s="74" t="str">
+      <c r="E31" s="70" t="str">
         <f>IF(bottom!E8="", "", bottom!E8)</f>
         <v/>
       </c>
-      <c r="F31" s="73" t="str">
+      <c r="F31" s="70" t="str">
         <f>IF(bottom!F8="", "", bottom!F8)</f>
         <v/>
       </c>
-      <c r="G31" s="73" t="str">
+      <c r="G31" s="70" t="str">
         <f>IF(bottom!A8="", "", bottom!G8)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="73" t="str">
+      <c r="A32" s="67" t="str">
         <f>IF(bottom!A9="", "", bottom!A9)</f>
         <v/>
       </c>
-      <c r="B32" s="73" t="str">
+      <c r="B32" s="70" t="str">
         <f>IF(bottom!B9="", "", bottom!B9)</f>
         <v/>
       </c>
-      <c r="C32" s="74" t="str">
+      <c r="C32" s="70" t="str">
         <f>IF(bottom!C9="", "", bottom!C9)</f>
         <v/>
       </c>
-      <c r="D32" s="74" t="str">
+      <c r="D32" s="70" t="str">
         <f>IF(bottom!D9="", "", bottom!D9)</f>
         <v/>
       </c>
-      <c r="E32" s="74" t="str">
+      <c r="E32" s="70" t="str">
         <f>IF(bottom!E9="", "", bottom!E9)</f>
         <v/>
       </c>
-      <c r="F32" s="73" t="str">
+      <c r="F32" s="70" t="str">
         <f>IF(bottom!F9="", "", bottom!F9)</f>
         <v/>
       </c>
-      <c r="G32" s="73" t="str">
+      <c r="G32" s="70" t="str">
         <f>IF(bottom!A9="", "", bottom!G9)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="73" t="str">
+      <c r="A33" s="67" t="str">
         <f>IF(bottom!A10="", "", bottom!A10)</f>
         <v/>
       </c>
-      <c r="B33" s="73" t="str">
+      <c r="B33" s="70" t="str">
         <f>IF(bottom!B10="", "", bottom!B10)</f>
         <v/>
       </c>
-      <c r="C33" s="74" t="str">
+      <c r="C33" s="70" t="str">
         <f>IF(bottom!C10="", "", bottom!C10)</f>
         <v/>
       </c>
-      <c r="D33" s="74" t="str">
+      <c r="D33" s="70" t="str">
         <f>IF(bottom!D10="", "", bottom!D10)</f>
         <v/>
       </c>
-      <c r="E33" s="74" t="str">
+      <c r="E33" s="70" t="str">
         <f>IF(bottom!E10="", "", bottom!E10)</f>
         <v/>
       </c>
-      <c r="F33" s="73" t="str">
+      <c r="F33" s="70" t="str">
         <f>IF(bottom!F10="", "", bottom!F10)</f>
         <v/>
       </c>
-      <c r="G33" s="73" t="str">
+      <c r="G33" s="70" t="str">
         <f>IF(bottom!A10="", "", bottom!G10)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="str">
+      <c r="A34" s="67" t="str">
         <f>IF(bottom!A11="", "", bottom!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="70">
         <f>IF(bottom!B11="", "", bottom!B11)</f>
         <v>28</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C34" s="70">
         <f>IF(bottom!C11="", "", bottom!C11)</f>
         <v>183.68464670045412</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="70">
         <f>IF(bottom!D11="", "", bottom!D11)</f>
         <v>52.602540378443841</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="70">
         <f>IF(bottom!E11="", "", bottom!E11)</f>
         <v>30</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="70">
         <f>IF(bottom!F11="", "", bottom!F11)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="70">
         <f>IF(bottom!A11="", "", bottom!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="73" t="str">
+      <c r="A35" s="67" t="str">
         <f>IF(bottom!A12="", "", bottom!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="70">
         <f>IF(bottom!B12="", "", bottom!B12)</f>
         <v>29</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="70">
         <f>IF(bottom!C12="", "", bottom!C12)</f>
         <v>165.20943808638611</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="70">
         <f>IF(bottom!D12="", "", bottom!D12)</f>
         <v>52.602540378443834</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="70">
         <f>IF(bottom!E12="", "", bottom!E12)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="70">
         <f>IF(bottom!F12="", "", bottom!F12)</f>
         <v>5</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="70">
         <f>IF(bottom!A12="", "", bottom!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="str">
+      <c r="A36" s="67" t="str">
         <f>IF(bottom!A13="", "", bottom!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B36" s="73">
+      <c r="B36" s="70">
         <f>IF(bottom!B13="", "", bottom!B13)</f>
         <v>24</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C36" s="70">
         <f>IF(bottom!C13="", "", bottom!C13)</f>
         <v>155.9718337793521</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="70">
         <f>IF(bottom!D13="", "", bottom!D13)</f>
         <v>68.602540378443834</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="70">
         <f>IF(bottom!E13="", "", bottom!E13)</f>
         <v>30</v>
       </c>
-      <c r="F36" s="73">
+      <c r="F36" s="70">
         <f>IF(bottom!F13="", "", bottom!F13)</f>
         <v>5</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="70">
         <f>IF(bottom!A13="", "", bottom!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="str">
+      <c r="A37" s="67" t="str">
         <f>IF(bottom!A14="", "", bottom!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B37" s="73">
+      <c r="B37" s="70">
         <f>IF(bottom!B14="", "", bottom!B14)</f>
         <v>25</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C37" s="70">
         <f>IF(bottom!C14="", "", bottom!C14)</f>
         <v>165.20943808638611</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="70">
         <f>IF(bottom!D14="", "", bottom!D14)</f>
         <v>84.602540378443791</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="70">
         <f>IF(bottom!E14="", "", bottom!E14)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F37" s="73">
+      <c r="F37" s="70">
         <f>IF(bottom!F14="", "", bottom!F14)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="70">
         <f>IF(bottom!A14="", "", bottom!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="73" t="str">
+      <c r="A38" s="67" t="str">
         <f>IF(bottom!A15="", "", bottom!A15)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B38" s="73">
+      <c r="B38" s="70">
         <f>IF(bottom!B15="", "", bottom!B15)</f>
         <v>22</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C38" s="70">
         <f>IF(bottom!C15="", "", bottom!C15)</f>
         <v>155.97183377935212</v>
       </c>
-      <c r="D38" s="74">
+      <c r="D38" s="70">
         <f>IF(bottom!D15="", "", bottom!D15)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="70">
         <f>IF(bottom!E15="", "", bottom!E15)</f>
         <v>30</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="70">
         <f>IF(bottom!F15="", "", bottom!F15)</f>
         <v>5</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="70">
         <f>IF(bottom!A15="", "", bottom!G15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="73" t="str">
+      <c r="A39" s="67" t="str">
         <f>IF(bottom!A16="", "", bottom!A16)</f>
         <v/>
       </c>
-      <c r="B39" s="73" t="str">
+      <c r="B39" s="70" t="str">
         <f>IF(bottom!B16="", "", bottom!B16)</f>
         <v/>
       </c>
-      <c r="C39" s="74" t="str">
+      <c r="C39" s="70" t="str">
         <f>IF(bottom!C16="", "", bottom!C16)</f>
         <v/>
       </c>
-      <c r="D39" s="74" t="str">
+      <c r="D39" s="70" t="str">
         <f>IF(bottom!D16="", "", bottom!D16)</f>
         <v/>
       </c>
-      <c r="E39" s="74" t="str">
+      <c r="E39" s="70" t="str">
         <f>IF(bottom!E16="", "", bottom!E16)</f>
         <v/>
       </c>
-      <c r="F39" s="73" t="str">
+      <c r="F39" s="70" t="str">
         <f>IF(bottom!F16="", "", bottom!F16)</f>
         <v/>
       </c>
-      <c r="G39" s="73" t="str">
+      <c r="G39" s="70" t="str">
         <f>IF(bottom!A16="", "", bottom!G16)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="str">
+      <c r="A40" s="67" t="str">
         <f>IF(bottom!A17="", "", bottom!A17)</f>
         <v/>
       </c>
-      <c r="B40" s="73" t="str">
+      <c r="B40" s="70" t="str">
         <f>IF(bottom!B17="", "", bottom!B17)</f>
         <v/>
       </c>
-      <c r="C40" s="74" t="str">
+      <c r="C40" s="70" t="str">
         <f>IF(bottom!C17="", "", bottom!C17)</f>
         <v/>
       </c>
-      <c r="D40" s="74" t="str">
+      <c r="D40" s="70" t="str">
         <f>IF(bottom!D17="", "", bottom!D17)</f>
         <v/>
       </c>
-      <c r="E40" s="74" t="str">
+      <c r="E40" s="70" t="str">
         <f>IF(bottom!E17="", "", bottom!E17)</f>
         <v/>
       </c>
-      <c r="F40" s="73" t="str">
+      <c r="F40" s="70" t="str">
         <f>IF(bottom!F17="", "", bottom!F17)</f>
         <v/>
       </c>
-      <c r="G40" s="73" t="str">
+      <c r="G40" s="70" t="str">
         <f>IF(bottom!A17="", "", bottom!G17)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="73" t="str">
+      <c r="A41" s="67" t="str">
         <f>IF(bottom!A18="", "", bottom!A18)</f>
         <v/>
       </c>
-      <c r="B41" s="73" t="str">
+      <c r="B41" s="70" t="str">
         <f>IF(bottom!B18="", "", bottom!B18)</f>
         <v/>
       </c>
-      <c r="C41" s="74" t="str">
+      <c r="C41" s="70" t="str">
         <f>IF(bottom!C18="", "", bottom!C18)</f>
         <v/>
       </c>
-      <c r="D41" s="74" t="str">
+      <c r="D41" s="70" t="str">
         <f>IF(bottom!D18="", "", bottom!D18)</f>
         <v/>
       </c>
-      <c r="E41" s="74" t="str">
+      <c r="E41" s="70" t="str">
         <f>IF(bottom!E18="", "", bottom!E18)</f>
         <v/>
       </c>
-      <c r="F41" s="73" t="str">
+      <c r="F41" s="70" t="str">
         <f>IF(bottom!F18="", "", bottom!F18)</f>
         <v/>
       </c>
-      <c r="G41" s="73" t="str">
+      <c r="G41" s="70" t="str">
         <f>IF(bottom!A18="", "", bottom!G18)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="73" t="str">
+      <c r="A42" s="67" t="str">
         <f>IF(bottom!A19="", "", bottom!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B42" s="73">
+      <c r="B42" s="70">
         <f>IF(bottom!B19="", "", bottom!B19)</f>
         <v>26</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="70">
         <f>IF(bottom!C19="", "", bottom!C19)</f>
         <v>183.68464670045415</v>
       </c>
-      <c r="D42" s="74">
+      <c r="D42" s="70">
         <f>IF(bottom!D19="", "", bottom!D19)</f>
         <v>84.60254037844382</v>
       </c>
-      <c r="E42" s="74">
+      <c r="E42" s="70">
         <f>IF(bottom!E19="", "", bottom!E19)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="70">
         <f>IF(bottom!F19="", "", bottom!F19)</f>
         <v>5</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="70">
         <f>IF(bottom!A19="", "", bottom!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="str">
+      <c r="A43" s="67" t="str">
         <f>IF(bottom!A20="", "", bottom!A20)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B43" s="73">
+      <c r="B43" s="70">
         <f>IF(bottom!B20="", "", bottom!B20)</f>
         <v>21</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C43" s="70">
         <f>IF(bottom!C20="", "", bottom!C20)</f>
         <v>192.92225100748817</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="70">
         <f>IF(bottom!D20="", "", bottom!D20)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E43" s="74">
+      <c r="E43" s="70">
         <f>IF(bottom!E20="", "", bottom!E20)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="70">
         <f>IF(bottom!F20="", "", bottom!F20)</f>
         <v>5</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="70">
         <f>IF(bottom!A20="", "", bottom!G20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="str">
+      <c r="A44" s="67" t="str">
         <f>IF(bottom!A21="", "", bottom!A21)</f>
         <v/>
       </c>
-      <c r="B44" s="73" t="str">
+      <c r="B44" s="70" t="str">
         <f>IF(bottom!B21="", "", bottom!B21)</f>
         <v/>
       </c>
-      <c r="C44" s="74" t="str">
+      <c r="C44" s="70" t="str">
         <f>IF(bottom!C21="", "", bottom!C21)</f>
         <v/>
       </c>
-      <c r="D44" s="74" t="str">
+      <c r="D44" s="70" t="str">
         <f>IF(bottom!D21="", "", bottom!D21)</f>
         <v/>
       </c>
-      <c r="E44" s="74" t="str">
+      <c r="E44" s="70" t="str">
         <f>IF(bottom!E21="", "", bottom!E21)</f>
         <v/>
       </c>
-      <c r="F44" s="73" t="str">
+      <c r="F44" s="70" t="str">
         <f>IF(bottom!F21="", "", bottom!F21)</f>
         <v/>
       </c>
-      <c r="G44" s="73" t="str">
+      <c r="G44" s="70" t="str">
         <f>IF(bottom!A21="", "", bottom!G21)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="str">
+      <c r="A45" s="67" t="str">
         <f>IF(bottom!A22="", "", bottom!A22)</f>
         <v/>
       </c>
-      <c r="B45" s="73" t="str">
+      <c r="B45" s="70" t="str">
         <f>IF(bottom!B22="", "", bottom!B22)</f>
         <v/>
       </c>
-      <c r="C45" s="74" t="str">
+      <c r="C45" s="70" t="str">
         <f>IF(bottom!C22="", "", bottom!C22)</f>
         <v/>
       </c>
-      <c r="D45" s="74" t="str">
+      <c r="D45" s="70" t="str">
         <f>IF(bottom!D22="", "", bottom!D22)</f>
         <v/>
       </c>
-      <c r="E45" s="74" t="str">
+      <c r="E45" s="70" t="str">
         <f>IF(bottom!E22="", "", bottom!E22)</f>
         <v/>
       </c>
-      <c r="F45" s="73" t="str">
+      <c r="F45" s="70" t="str">
         <f>IF(bottom!F22="", "", bottom!F22)</f>
         <v/>
       </c>
-      <c r="G45" s="73" t="str">
+      <c r="G45" s="70" t="str">
         <f>IF(bottom!A22="", "", bottom!G22)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="73" t="str">
+      <c r="A46" s="67" t="str">
         <f>IF(bottom!A23="", "", bottom!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="70">
         <f>IF(bottom!B23="", "", bottom!B23)</f>
         <v>27</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C46" s="70">
         <f>IF(bottom!C23="", "", bottom!C23)</f>
         <v>192.92225100748814</v>
       </c>
-      <c r="D46" s="74">
+      <c r="D46" s="70">
         <f>IF(bottom!D23="", "", bottom!D23)</f>
         <v>68.60254037844382</v>
       </c>
-      <c r="E46" s="74">
+      <c r="E46" s="70">
         <f>IF(bottom!E23="", "", bottom!E23)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="70">
         <f>IF(bottom!F23="", "", bottom!F23)</f>
         <v>5</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="70">
         <f>IF(bottom!A23="", "", bottom!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="73" t="str">
+      <c r="A47" s="67" t="str">
         <f>IF(bottom!A24="", "", bottom!A24)</f>
         <v/>
       </c>
-      <c r="B47" s="73" t="str">
+      <c r="B47" s="70" t="str">
         <f>IF(bottom!B24="", "", bottom!B24)</f>
         <v/>
       </c>
-      <c r="C47" s="74" t="str">
+      <c r="C47" s="70" t="str">
         <f>IF(bottom!C24="", "", bottom!C24)</f>
         <v/>
       </c>
-      <c r="D47" s="74" t="str">
+      <c r="D47" s="70" t="str">
         <f>IF(bottom!D24="", "", bottom!D24)</f>
         <v/>
       </c>
-      <c r="E47" s="74" t="str">
+      <c r="E47" s="70" t="str">
         <f>IF(bottom!E24="", "", bottom!E24)</f>
         <v/>
       </c>
-      <c r="F47" s="73" t="str">
+      <c r="F47" s="70" t="str">
         <f>IF(bottom!F24="", "", bottom!F24)</f>
         <v/>
       </c>
-      <c r="G47" s="73" t="str">
+      <c r="G47" s="70" t="str">
         <f>IF(bottom!A24="", "", bottom!G24)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="73" t="str">
+      <c r="A48" s="67" t="str">
         <f>IF(bottom!A25="", "", bottom!A25)</f>
         <v/>
       </c>
-      <c r="B48" s="73" t="str">
+      <c r="B48" s="70" t="str">
         <f>IF(bottom!B25="", "", bottom!B25)</f>
         <v/>
       </c>
-      <c r="C48" s="74" t="str">
+      <c r="C48" s="70" t="str">
         <f>IF(bottom!C25="", "", bottom!C25)</f>
         <v/>
       </c>
-      <c r="D48" s="74" t="str">
+      <c r="D48" s="70" t="str">
         <f>IF(bottom!D25="", "", bottom!D25)</f>
         <v/>
       </c>
-      <c r="E48" s="74" t="str">
+      <c r="E48" s="70" t="str">
         <f>IF(bottom!E25="", "", bottom!E25)</f>
         <v/>
       </c>
-      <c r="F48" s="73" t="str">
+      <c r="F48" s="70" t="str">
         <f>IF(bottom!F25="", "", bottom!F25)</f>
         <v/>
       </c>
-      <c r="G48" s="73" t="str">
+      <c r="G48" s="70" t="str">
         <f>IF(bottom!A25="", "", bottom!G25)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="71"/>
+      <c r="E63" s="71"/>
+      <c r="F63" s="71"/>
+      <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="71"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="71"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="71"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="72"/>
+      <c r="F74" s="72"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="72"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
+      <c r="A76" s="62"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="72"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
+      <c r="A77" s="62"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
+      <c r="A78" s="62"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="72"/>
+      <c r="D78" s="72"/>
+      <c r="E78" s="72"/>
+      <c r="F78" s="72"/>
+      <c r="G78" s="72"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
+      <c r="A79" s="62"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
+      <c r="G79" s="72"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
+      <c r="A80" s="62"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
+      <c r="A81" s="62"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="F81" s="72"/>
+      <c r="G81" s="72"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="F82" s="72"/>
+      <c r="G82" s="72"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
+      <c r="A83" s="62"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="72"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
+      <c r="A84" s="62"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="70"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
+      <c r="A85" s="62"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="72"/>
+      <c r="G85" s="72"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
+      <c r="A86" s="62"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="72"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="70"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
+      <c r="A87" s="62"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
+      <c r="G87" s="72"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="72"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
+      <c r="A89" s="62"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="F89" s="72"/>
+      <c r="G89" s="72"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="70"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
+      <c r="A90" s="62"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="72"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
+      <c r="A92" s="62"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="72"/>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="70"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
+      <c r="A93" s="62"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="70"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
+      <c r="A94" s="62"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="F94" s="72"/>
+      <c r="G94" s="72"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="71"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icub-main\app\skinGui\iniGenerators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="top" sheetId="1" r:id="rId1"/>
     <sheet name="bottom" sheetId="2" r:id="rId2"/>
     <sheet name="final ini" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -791,6 +796,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1994,6 +2002,645 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1772095</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>150571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2122715" y="6885214"/>
+          <a:ext cx="7323809" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1432228</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156805</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="Group 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="11601478">
+          <a:off x="6408964" y="7497537"/>
+          <a:ext cx="2697693" cy="2565268"/>
+          <a:chOff x="10640786" y="7960179"/>
+          <a:chExt cx="2697693" cy="2565268"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="12279086" y="7960179"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="11759133" y="8359108"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="11127120" y="8164125"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="10640786" y="8630290"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="10770774" y="9253338"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="11875674" y="8991120"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>12</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="11378133" y="9401255"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>13</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="11508121" y="10125155"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>8</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="12142374" y="10277555"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>9</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11215698">
+            <a:off x="12686980" y="9869661"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>10</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11215698">
+            <a:off x="12503204" y="9248855"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>11</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11215698">
+            <a:off x="13002986" y="8784932"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>14</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="11019685">
+            <a:off x="12875239" y="8130508"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>15</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5123,6 +5770,615 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>91607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="6529917"/>
+          <a:ext cx="7323809" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149957</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>84909</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="Group 70"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3153834" y="7143750"/>
+          <a:ext cx="3282623" cy="1979326"/>
+          <a:chOff x="3153834" y="7143750"/>
+          <a:chExt cx="3282623" cy="1979326"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="29" name="Group 28"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm rot="1267408">
+            <a:off x="3153834" y="7143750"/>
+            <a:ext cx="3282623" cy="1979326"/>
+            <a:chOff x="2381250" y="6529917"/>
+            <a:chExt cx="3282623" cy="1979326"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2381250" y="7463795"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>18</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="60" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2798233" y="7002361"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>17</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2470150" y="8113611"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>19</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="62" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5328380" y="7863417"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>22</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5053213" y="6529917"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>21</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4549446" y="6989234"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>26</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4712429" y="7639050"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>25</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4166329" y="8003117"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>24</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3069896" y="8261351"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>20</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3433962" y="7175500"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>28</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="69" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3544028" y="7867650"/>
+              <a:ext cx="335493" cy="247892"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>29</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="TextBox 24"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4942417" y="7493000"/>
+            <a:ext cx="335493" cy="247892"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>27</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5169,7 +6425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5204,7 +6460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5413,10 +6669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,7 +7949,6 @@
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="7"/>
@@ -6703,7 +7958,6 @@
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="7"/>
@@ -6718,6 +7972,9 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
+    </row>
+    <row r="58" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="L58" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6730,8 +7987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7777,7 +9034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>

--- a/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/right_foot_ini_generator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icub-main\app\skinGui\iniGenerators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDussoni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="top" sheetId="1" r:id="rId1"/>
@@ -825,8 +825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11107537" y="2423105"/>
-          <a:ext cx="4349779" cy="4100085"/>
+          <a:off x="11092569" y="2417662"/>
+          <a:ext cx="4355222" cy="4096003"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -2062,8 +2062,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="11601478">
-          <a:off x="6408964" y="7497537"/>
-          <a:ext cx="2697693" cy="2565268"/>
+          <a:off x="6393996" y="7488012"/>
+          <a:ext cx="2696332" cy="2565268"/>
           <a:chOff x="10640786" y="7960179"/>
           <a:chExt cx="2697693" cy="2565268"/>
         </a:xfrm>
@@ -2107,7 +2107,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>0</a:t>
+              <a:t>4</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2151,7 +2151,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>1</a:t>
+              <a:t>13</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2195,7 +2195,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>2</a:t>
+              <a:t>8</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2239,7 +2239,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>3</a:t>
+              <a:t>9</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2283,7 +2283,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>4</a:t>
+              <a:t>10</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2371,7 +2371,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>13</a:t>
+              <a:t>11</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2415,7 +2415,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>8</a:t>
+              <a:t>14</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2459,7 +2459,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>9</a:t>
+              <a:t>15</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2503,7 +2503,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>10</a:t>
+              <a:t>0</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2547,7 +2547,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>11</a:t>
+              <a:t>1</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2591,7 +2591,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>14</a:t>
+              <a:t>2</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2635,7 +2635,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" sz="1100"/>
-              <a:t>15</a:t>
+              <a:t>3</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6671,7 +6671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
@@ -7987,7 +7987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -9035,7 +9035,7 @@
   <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
